--- a/info/func.xlsx
+++ b/info/func.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AstroBlartvks\Documents\Лабораторные\ОПД\Trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AstroBlartvks\Documents\Лабораторные\ОПД\Trans\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C883E-1DA0-48E7-8C22-186383D104BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F7B305-4E39-44EB-901C-3A5F8E8CFE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>F001</t>
   </si>
   <si>
-    <t>(BEQ|BZS)</t>
+    <t>(BEQ|BZS) +1</t>
   </si>
   <si>
     <t>Переход если равенство (Z == 1)</t>
@@ -64,10 +64,10 @@
     <t>F304</t>
   </si>
   <si>
-    <t>(BEQ|BZS) 0x0304</t>
-  </si>
-  <si>
-    <t>Переход если равенство (Z == 1) (абсолютная адресация)</t>
+    <t>(BPL|BNC) +4</t>
+  </si>
+  <si>
+    <t>Переход если равенство (Z == 1) (прямая относительная)</t>
   </si>
   <si>
     <t>71C</t>
@@ -88,7 +88,7 @@
     <t>F201</t>
   </si>
   <si>
-    <t>(BEQ|BZS) 0x0201</t>
+    <t>(BMI|BNS) +1</t>
   </si>
   <si>
     <t>71E</t>
@@ -187,7 +187,7 @@
     <t>F16E</t>
   </si>
   <si>
-    <t>(BEQ|BZS) 0x016E</t>
+    <t>(BNE|BNZ) +110</t>
   </si>
   <si>
     <t>727</t>
@@ -542,15 +542,12 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
